--- a/res/population_ok.xlsx
+++ b/res/population_ok.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>index</t>
+  </si>
   <si>
     <t>WOJ. DOLNOŚLĄSKIE</t>
   </si>
@@ -419,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,852 +477,903 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>2006</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2882247</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2065386</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2172967</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1007465</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2567983</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3270701</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5149439</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1039386</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2096790</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1198653</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2199642</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4661172</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1279019</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1426286</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3372556</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1695016</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2007</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2875572</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2064224</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2167257</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1006933</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2558097</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3275995</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5153972</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1033226</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2097095</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1196549</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2202984</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>4640707</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1275372</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1425601</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>3376754</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1693671</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>2008</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2868327</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2062747</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2162185</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1006347</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2548313</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3280807</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5158023</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1026781</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2097166</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1194427</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2205924</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4619680</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1271519</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1424693</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3380765</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1692261</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>2009</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2860802</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2061399</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2156592</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1005746</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2537973</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3285465</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5162200</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1020365</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2097360</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1192081</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2208615</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4597196</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1267362</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1423979</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3384669</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1690337</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>2010</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2852782</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2059562</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2150980</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1004687</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2527781</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3289479</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5165076</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1013507</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2097661</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1189897</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2210617</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4574176</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1263612</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1422908</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>3388322</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1688182</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>2011</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2844895</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2057625</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2146016</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1003711</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2517948</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3293575</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5168588</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1006716</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2097919</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1187646</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2212851</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>4550340</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1259782</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1421557</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3391974</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1686016</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>2012</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2836632</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2055731</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2140638</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1002643</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2507869</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3297807</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5172267</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>999965</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2098389</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1185524</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2214801</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>4526504</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1256017</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1420452</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>3395553</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1683566</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>2013</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2828512</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2053620</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2135462</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1001675</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2497925</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3301683</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5175788</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>993368</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2098580</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1183177</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2216730</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>4502434</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1252309</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1418882</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>3399356</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1681148</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>2014</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2819946</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2051238</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2130570</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1000313</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2488144</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3305307</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5178976</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>986555</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2099065</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1181069</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2218085</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>4477872</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1248583</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1417414</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>3402757</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1678621</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>2015</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2811035</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2048813</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2125741</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>998870</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2478486</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3308942</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5181858</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>980108</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2099585</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1178902</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2219154</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4452437</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1244581</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1415427</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>3406172</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1675772</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>2016</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>2801763</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2045949</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2120504</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>997463</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2468194</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3311871</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5184267</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>973266</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2099510</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1176615</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2219856</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>4426611</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1240459</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1413698</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3408712</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1672516</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>2017</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>2791924</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2042663</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2114972</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>995821</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2457835</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3314214</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5185240</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>966440</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2099190</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1174180</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2220096</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>4399480</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1236251</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1411196</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>3410862</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1668955</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>2018</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>2781685</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2039064</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2108790</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>993928</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2447220</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3315842</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5185063</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>959681</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2098871</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1171278</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2219755</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>4371678</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1231763</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1408552</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3412241</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1665099</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>2019</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>2770805</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2034914</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2102627</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>991638</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2436272</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3316809</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5183898</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>952702</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2097497</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1168541</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2218915</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>4342485</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1227300</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1405544</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>3412846</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1660931</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>2020</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>2759414</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2030271</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2095795</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>989243</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2424821</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3317189</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>5181897</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>945523</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2095937</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1165466</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2217255</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>4312728</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1222487</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1402079</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3412510</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1656231</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>2021</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>2747259</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2025001</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2088831</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>986816</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2413181</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3316533</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5178253</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>938324</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2093794</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1162235</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2215034</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>4281632</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1217504</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1397980</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>3411268</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1650924</v>
       </c>
     </row>
